--- a/Data/EC/NIT-9014161160.xlsx
+++ b/Data/EC/NIT-9014161160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B072854F-931A-4AA2-BE65-7BF1D4C8E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFD0019-C45A-485C-AABE-E434DF12F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16D3EB10-DA5D-43DD-957D-8E7E96DC68FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31E39555-0021-4C1B-963F-66FE3F60980B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3830222</t>
+  </si>
+  <si>
+    <t>ELKIN ENRIQUE ARRIETA CAICEDO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1143374161</t>
+  </si>
+  <si>
+    <t>EDWIN ALVAREZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>1043636663</t>
+  </si>
+  <si>
+    <t>NEYDER JOSE CAMERA ULLOA</t>
+  </si>
+  <si>
     <t>1047415641</t>
   </si>
   <si>
     <t>HENRY AMALIO CASTILLO TORRES</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2311</t>
   </si>
   <si>
-    <t>2312</t>
+    <t>73149881</t>
+  </si>
+  <si>
+    <t>HECTOR WILLIAM PORRAS BARBOZA</t>
+  </si>
+  <si>
+    <t>1143348470</t>
+  </si>
+  <si>
+    <t>GABRIEL ANGEL PEREZ RONDANO</t>
   </si>
   <si>
     <t>1001971665</t>
@@ -83,25 +116,10 @@
     <t>DEYMER JOSE SANMARTIN GUTIERREZ</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>3830222</t>
-  </si>
-  <si>
-    <t>ELKIN ENRIQUE ARRIETA CAICEDO</t>
-  </si>
-  <si>
-    <t>73149881</t>
-  </si>
-  <si>
-    <t>HECTOR WILLIAM PORRAS BARBOZA</t>
-  </si>
-  <si>
-    <t>1143374161</t>
-  </si>
-  <si>
-    <t>EDWIN ALVAREZ VASQUEZ</t>
+    <t>1002059655</t>
+  </si>
+  <si>
+    <t>DEIMER DE JESUS GARIZAO GARIZAO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A67741-391B-D3E9-31B2-DCE6227AB49F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251F139A-35F2-F2C5-5B3D-187992B637B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C631EA3A-D9F9-480C-86CF-9A15A00C83F2}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1DAAC2-0CDE-4752-A3D9-747D0924C3ED}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -891,7 +909,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +954,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +986,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>388443</v>
+        <v>568229</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,14 +1002,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1021,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1044,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20533</v>
+        <v>86000</v>
       </c>
       <c r="G16" s="18">
-        <v>1400000</v>
+        <v>2150000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,19 +1076,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>11200</v>
+        <v>62910</v>
       </c>
       <c r="G17" s="18">
-        <v>1400000</v>
+        <v>1572740</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,16 +1099,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>59800</v>
+        <v>43853</v>
       </c>
       <c r="G18" s="18">
         <v>1495000</v>
@@ -1110,13 +1128,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>86000</v>
+        <v>11200</v>
       </c>
       <c r="G19" s="18">
-        <v>2150000</v>
+        <v>1400000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1127,75 +1145,144 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F20" s="18">
-        <v>148000</v>
+        <v>20533</v>
       </c>
       <c r="G20" s="18">
-        <v>3700000</v>
+        <v>1400000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="24">
-        <v>62910</v>
-      </c>
-      <c r="G21" s="24">
-        <v>1572740</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="E21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="18">
+        <v>148000</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3700000</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18">
+        <v>116000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2900000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18">
+        <v>59800</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1495000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="24">
+        <v>19933</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1495000</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014161160.xlsx
+++ b/Data/EC/NIT-9014161160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFD0019-C45A-485C-AABE-E434DF12F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CFFD21-AC1E-4E71-97CD-3F6F398A9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31E39555-0021-4C1B-963F-66FE3F60980B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA9A650B-903E-49E5-8386-4FEBAE00944D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,61 +65,16 @@
     <t>CC</t>
   </si>
   <si>
-    <t>3830222</t>
-  </si>
-  <si>
-    <t>ELKIN ENRIQUE ARRIETA CAICEDO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1143374161</t>
-  </si>
-  <si>
-    <t>EDWIN ALVAREZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>1043636663</t>
-  </si>
-  <si>
-    <t>NEYDER JOSE CAMERA ULLOA</t>
-  </si>
-  <si>
     <t>1047415641</t>
   </si>
   <si>
     <t>HENRY AMALIO CASTILLO TORRES</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>73149881</t>
-  </si>
-  <si>
-    <t>HECTOR WILLIAM PORRAS BARBOZA</t>
-  </si>
-  <si>
-    <t>1143348470</t>
-  </si>
-  <si>
-    <t>GABRIEL ANGEL PEREZ RONDANO</t>
-  </si>
-  <si>
-    <t>1001971665</t>
-  </si>
-  <si>
-    <t>DEYMER JOSE SANMARTIN GUTIERREZ</t>
-  </si>
-  <si>
-    <t>1002059655</t>
-  </si>
-  <si>
-    <t>DEIMER DE JESUS GARIZAO GARIZAO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,22 +173,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +388,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +432,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251F139A-35F2-F2C5-5B3D-187992B637B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBE7142-2E4D-19DD-D8AB-6520B698CC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1DAAC2-0CDE-4752-A3D9-747D0924C3ED}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9BF45F-6CE7-4B12-877C-49117B25AB9E}">
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -896,7 +851,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -909,7 +864,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +909,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +941,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>568229</v>
+        <v>31733</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +957,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +994,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,227 +1017,66 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>86000</v>
+        <v>20533</v>
       </c>
       <c r="G16" s="18">
-        <v>2150000</v>
+        <v>1400000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="18">
-        <v>62910</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1572740</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="18">
-        <v>43853</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1495000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="F17" s="24">
         <v>11200</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G17" s="24">
         <v>1400000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="18">
-        <v>20533</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1400000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18">
-        <v>148000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>3700000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C23" s="32"/>
+      <c r="H23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="18">
-        <v>116000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>2900000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="18">
-        <v>59800</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1495000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="24">
-        <v>19933</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1495000</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014161160.xlsx
+++ b/Data/EC/NIT-9014161160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CFFD21-AC1E-4E71-97CD-3F6F398A9EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB106457-EEFB-4538-94EB-6FBF27A8FBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA9A650B-903E-49E5-8386-4FEBAE00944D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F2389827-3FC6-4F7C-B1DE-DE1D0468560B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -173,22 +173,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -382,29 +382,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,19 +423,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +494,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBE7142-2E4D-19DD-D8AB-6520B698CC47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC54D145-7569-CE17-25FC-B49FB2C37A46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9BF45F-6CE7-4B12-877C-49117B25AB9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B57F2A-FB4F-41D8-BDEC-90529C995AED}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -862,49 +868,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -912,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -928,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9014161160</v>
       </c>
@@ -944,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>31733</v>
       </c>
@@ -1013,47 +1019,47 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>20533</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1400000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="26">
         <v>11200</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="26">
         <v>1400000</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1061,10 +1067,10 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="34"/>
       <c r="H23" s="1" t="s">
         <v>23</v>
       </c>
